--- a/medicine/Médecine vétérinaire/Cryptosporidium_parvum/Cryptosporidium_parvum.xlsx
+++ b/medicine/Médecine vétérinaire/Cryptosporidium_parvum/Cryptosporidium_parvum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptosporidium parvum est une espèce de  protozoaires parasites unicellulaires pathogènes pour l'Homme du genre Cryptosporidium, de l'embranchement Apicomplexa, capables de provoquer des diarrhées appelées cryptosporidioses chez plusieurs espèces de vertébrés dont l'homme.  
 Il provoque la cryptosporidiose. La contamination se fait par voie orale, par ingestion d'oocystes mûrs. À l'intérieur de l'intestin, a lieu un dékystement et une libération de sporozoïtes qui vont pénétrer dans la cellule intestinale.
@@ -513,7 +525,9 @@
           <t>Les méthodes de transmissions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eau Contaminée : L'un des principaux modes de transmission se produit par le contact avec de l'eau contaminée, dont l'eau potable et l'eau récréative. Les oocystes de Cryptosporidium parvum peuvent subsister dans l'eau et rester infectieux pendant de longues périodes. L'ingestion d'eau ayant été contaminée par le parasite peut conduire à une infection.
 Contamination Alimentaire : Cryptosporidium parvum peut également être transmis par le biais d'aliments contaminés, en particulier s'ils ont été en contact avec les matières fécales d'humains ou d'animaux infectés. La transmission par voie alimentaire peut se produire lorsqu'un aliment est préparé ou manipulé par des individus porteurs du parasite.
